--- a/HT36C/Table2.xlsx
+++ b/HT36C/Table2.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PKBACK# 001/GitHub/24321-A4/HT36C/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FEEA51-DF6D-8340-BDBA-1A3F762573A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="128">
   <si>
     <t>mCold</t>
   </si>
@@ -316,13 +310,103 @@
   </si>
   <si>
     <t>37.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1025</t>
+  </si>
+  <si>
+    <t>979.9</t>
+  </si>
+  <si>
+    <t>994.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  874</t>
+  </si>
+  <si>
+    <t>870.1</t>
+  </si>
+  <si>
+    <t>839.5</t>
+  </si>
+  <si>
+    <t>852.6</t>
+  </si>
+  <si>
+    <t>41.57</t>
+  </si>
+  <si>
+    <t>47.06</t>
+  </si>
+  <si>
+    <t>44.62</t>
+  </si>
+  <si>
+    <t>49.53</t>
+  </si>
+  <si>
+    <t>53.39</t>
+  </si>
+  <si>
+    <t>29.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32</t>
+  </si>
+  <si>
+    <t>30.85</t>
+  </si>
+  <si>
+    <t>33.12</t>
+  </si>
+  <si>
+    <t>34.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41.6      28.26</t>
+  </si>
+  <si>
+    <t>47.87      32.52</t>
+  </si>
+  <si>
+    <t>45.18       30.7</t>
+  </si>
+  <si>
+    <t>48.39      32.87</t>
+  </si>
+  <si>
+    <t>52.97      35.99</t>
+  </si>
+  <si>
+    <t>34.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38.1</t>
+  </si>
+  <si>
+    <t>36.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39.7</t>
+  </si>
+  <si>
+    <t>42.14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -341,7 +425,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -356,28 +440,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -677,342 +805,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="11" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
-    <col min="16" max="17" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="5.7109375" customWidth="true"/>
+    <col min="9" max="9" width="6.7109375" customWidth="true"/>
+    <col min="10" max="10" width="5.7109375" customWidth="true"/>
+    <col min="12" max="12" width="6.7109375" customWidth="true"/>
+    <col min="13" max="13" width="4.7109375" customWidth="true"/>
+    <col min="14" max="14" width="5.7109375" customWidth="true"/>
+    <col min="15" max="15" width="9.7109375" customWidth="true"/>
+    <col min="16" max="16" width="5.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="4" max="4" width="5.7109375" customWidth="true"/>
+    <col min="5" max="5" width="5.7109375" customWidth="true"/>
+    <col min="6" max="6" width="5.7109375" customWidth="true"/>
+    <col min="7" max="7" width="5.7109375" customWidth="true"/>
+    <col min="8" max="8" width="5.7109375" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
+    <col min="17" max="17" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>88</v>
+      <c r="P2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>89</v>
+      <c r="P3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>90</v>
+      <c r="P4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>91</v>
+      <c r="P5" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>92</v>
+      <c r="P6" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1022,24 +1158,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
